--- a/RD/Project/table.xlsx
+++ b/RD/Project/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Facultate\An 4\y4-IA\RD\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27428A0F-7847-4EEA-AA36-19D62FE96C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA87D86-7E50-45F1-B463-DFDA9AA53258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>a</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>Teste esentiale:</t>
+  </si>
+  <si>
+    <t>011</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -248,6 +251,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X36"/>
+  <dimension ref="A1:X39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A2,1)),OR(AND(A2,1),C2)))</f>
+        <f t="shared" ref="L2:L9" si="0">NOT(AND(NOT(AND(A2,1)),OR(AND(A2,1),C2)))</f>
         <v>1</v>
       </c>
       <c r="M2" s="5" t="b">
@@ -779,79 +783,79 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="b">
-        <f t="shared" ref="D3:D9" si="0">AND(A3,B3)</f>
+        <f t="shared" ref="D3:D9" si="1">AND(A3,B3)</f>
         <v>0</v>
       </c>
       <c r="E3" s="3" t="b">
-        <f t="shared" ref="E3:E9" si="1">D3</f>
+        <f t="shared" ref="E3:E9" si="2">D3</f>
         <v>0</v>
       </c>
       <c r="F3" s="3" t="b">
-        <f t="shared" ref="F3:F9" si="2">NOT(D3)</f>
+        <f t="shared" ref="F3:F9" si="3">NOT(D3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G9" si="3">OR(AND(A3,B3),C3)</f>
+        <f t="shared" ref="G3:G9" si="4">OR(AND(A3,B3),C3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="3" t="b">
-        <f t="shared" ref="H3:H9" si="4">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),C3)))</f>
+        <f t="shared" ref="H3:H9" si="5">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="I3" s="5" t="b">
-        <f t="shared" ref="I3:I9" si="5">NOT(AND(NOT(AND(0,B3)),OR(AND(0,B3),C3)))</f>
+        <f t="shared" ref="I3:I9" si="6">NOT(AND(NOT(AND(0,B3)),OR(AND(0,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="J3" s="5" t="b">
-        <f t="shared" ref="J3:J9" si="6">NOT(AND(NOT(AND(1,B3)),OR(AND(1,B3),C3)))</f>
+        <f t="shared" ref="J3:J9" si="7">NOT(AND(NOT(AND(1,B3)),OR(AND(1,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="K3" s="5" t="b">
-        <f t="shared" ref="K3:K9" si="7">NOT(AND(NOT(AND(A3,0)),OR(AND(A3,0),C3)))</f>
+        <f t="shared" ref="K3:K9" si="8">NOT(AND(NOT(AND(A3,0)),OR(AND(A3,0),C3)))</f>
         <v>0</v>
       </c>
       <c r="L3" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A3,1)),OR(AND(A3,1),C3)))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="M3" s="7" t="b">
-        <f t="shared" ref="M3:M9" si="8">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),0)))</f>
+        <f t="shared" ref="M3:M9" si="9">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),0)))</f>
         <v>1</v>
       </c>
       <c r="N3" s="5" t="b">
-        <f t="shared" ref="N3:N9" si="9">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),1)))</f>
+        <f t="shared" ref="N3:N9" si="10">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),1)))</f>
         <v>0</v>
       </c>
       <c r="O3" s="5" t="b">
-        <f t="shared" ref="O3:O9" si="10">NOT(AND(NOT(0),OR(AND(A3,B3),C3)))</f>
+        <f t="shared" ref="O3:O9" si="11">NOT(AND(NOT(0),OR(AND(A3,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="P3" s="7" t="b">
-        <f t="shared" ref="P3:P9" si="11">NOT(AND(NOT(1),OR(AND(A3,B3),C3)))</f>
+        <f t="shared" ref="P3:P9" si="12">NOT(AND(NOT(1),OR(AND(A3,B3),C3)))</f>
         <v>1</v>
       </c>
       <c r="Q3" s="5" t="b">
-        <f t="shared" ref="Q3:Q9" si="12">NOT(AND(NOT(AND(A3,B3)),OR(0,C3)))</f>
+        <f t="shared" ref="Q3:Q9" si="13">NOT(AND(NOT(AND(A3,B3)),OR(0,C3)))</f>
         <v>0</v>
       </c>
       <c r="R3" s="5" t="b">
-        <f t="shared" ref="R3:R9" si="13">NOT(AND(NOT(AND(A3,B3)),OR(1,C3)))</f>
+        <f t="shared" ref="R3:R9" si="14">NOT(AND(NOT(AND(A3,B3)),OR(1,C3)))</f>
         <v>0</v>
       </c>
       <c r="S3" s="7" t="b">
-        <f t="shared" ref="S3:S9" si="14">NOT(AND(0,OR(AND(A3,B3),C3)))</f>
+        <f t="shared" ref="S3:S9" si="15">NOT(AND(0,OR(AND(A3,B3),C3)))</f>
         <v>1</v>
       </c>
       <c r="T3" s="5" t="b">
-        <f t="shared" ref="T3:T9" si="15">NOT(AND(1,OR(AND(A3,B3),C3)))</f>
+        <f t="shared" ref="T3:T9" si="16">NOT(AND(1,OR(AND(A3,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="U3" s="7" t="b">
-        <f t="shared" ref="U3:U9" si="16">NOT(AND(NOT(AND(A3,B3)),0))</f>
+        <f t="shared" ref="U3:U9" si="17">NOT(AND(NOT(AND(A3,B3)),0))</f>
         <v>1</v>
       </c>
       <c r="V3" s="5" t="b">
-        <f t="shared" ref="V3:V9" si="17">NOT(AND(NOT(AND(A3,B3)),1))</f>
+        <f t="shared" ref="V3:V9" si="18">NOT(AND(NOT(AND(A3,B3)),1))</f>
         <v>0</v>
       </c>
       <c r="W3" s="5" t="b">
@@ -874,79 +878,79 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I4" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K4" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E4" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G4" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I4" s="5" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J4" s="5" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L4" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A4,1)),OR(AND(A4,1),C4)))</f>
         <v>1</v>
       </c>
       <c r="M4" s="5" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N4" s="7" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O4" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P4" s="5" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q4" s="5" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R4" s="7" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S4" s="5" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T4" s="5" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U4" s="5" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V4" s="7" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W4" s="7" t="b">
@@ -969,79 +973,79 @@
         <v>1</v>
       </c>
       <c r="D5" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F5" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H5" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I5" s="5" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A5,1)),OR(AND(A5,1),C5)))</f>
-        <v>0</v>
-      </c>
       <c r="M5" s="7" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N5" s="5" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O5" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P5" s="7" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q5" s="5" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R5" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S5" s="7" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T5" s="5" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U5" s="7" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V5" s="5" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W5" s="5" t="b">
@@ -1064,79 +1068,79 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G6" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I6" s="5" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J6" s="5" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L6" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A6,1)),OR(AND(A6,1),C6)))</f>
         <v>1</v>
       </c>
       <c r="M6" s="5" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N6" s="7" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O6" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P6" s="5" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q6" s="5" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R6" s="7" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S6" s="5" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T6" s="5" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="U6" s="5" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V6" s="7" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W6" s="7" t="b">
@@ -1159,79 +1163,79 @@
         <v>1</v>
       </c>
       <c r="D7" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="7" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F7" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="5" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="b">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L7" s="7" t="b">
-        <f>NOT(AND(NOT(AND(A7,1)),OR(AND(A7,1),C7)))</f>
         <v>1</v>
       </c>
       <c r="M7" s="7" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N7" s="5" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O7" s="5" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P7" s="7" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q7" s="5" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R7" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S7" s="7" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T7" s="5" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U7" s="7" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V7" s="5" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W7" s="5" t="b">
@@ -1254,79 +1258,79 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="5" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F8" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H8" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I8" s="5" t="b">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="J8" s="5" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K8" s="5" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A8,1)),OR(AND(A8,1),C8)))</f>
-        <v>1</v>
-      </c>
       <c r="M8" s="5" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N8" s="5" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O8" s="7" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P8" s="5" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q8" s="5" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R8" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S8" s="5" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T8" s="7" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U8" s="5" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V8" s="5" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W8" s="7" t="b">
@@ -1349,79 +1353,79 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="b">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="b">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="K9" s="7" t="b">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="5" t="b">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="b">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="F9" s="3" t="b">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="b">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="H9" s="3" t="b">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="b">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="b">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="K9" s="7" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A9,1)),OR(AND(A9,1),C9)))</f>
-        <v>1</v>
-      </c>
       <c r="M9" s="5" t="b">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N9" s="5" t="b">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="O9" s="7" t="b">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P9" s="5" t="b">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q9" s="5" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R9" s="5" t="b">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="S9" s="5" t="b">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
       <c r="T9" s="7" t="b">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U9" s="5" t="b">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
       <c r="V9" s="5" t="b">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="W9" s="7" t="b">
@@ -1691,6 +1695,21 @@
         <v>41</v>
       </c>
     </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39">
+        <v>111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/RD/Project/table.xlsx
+++ b/RD/Project/table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Facultate\An 4\y4-IA\RD\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA87D86-7E50-45F1-B463-DFDA9AA53258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855C76B3-8C93-48E3-87F8-12723DDF2D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foaie1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>a</t>
   </si>
@@ -119,12 +119,6 @@
     <t>F1 = {a0, b0}</t>
   </si>
   <si>
-    <t>F2 = {c0, d1, f0, g0, z1}</t>
-  </si>
-  <si>
-    <t>F3 = {c1, e1, g1}</t>
-  </si>
-  <si>
     <t>F4 = {d0, f1}</t>
   </si>
   <si>
@@ -165,6 +159,48 @@
   </si>
   <si>
     <t>011</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>F2 = {c0, d1, e1, g0, h0, z1}</t>
+  </si>
+  <si>
+    <t>F3 = {c1, f1, h1}</t>
+  </si>
+  <si>
+    <t>Needed Integrated Circuits:</t>
+  </si>
+  <si>
+    <t>NOT</t>
+  </si>
+  <si>
+    <t>AND</t>
+  </si>
+  <si>
+    <t>CD4081</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>NAND</t>
+  </si>
+  <si>
+    <t>CD4071</t>
+  </si>
+  <si>
+    <t>CD4011</t>
+  </si>
+  <si>
+    <t>CD4049</t>
+  </si>
+  <si>
+    <t>h0</t>
+  </si>
+  <si>
+    <t>h1</t>
   </si>
 </sst>
 </file>
@@ -284,16 +320,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>388700</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>8964</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57006</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>26893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>173092</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>171292</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>170329</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,8 +352,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2827100" y="2160493"/>
-          <a:ext cx="2595298" cy="1419187"/>
+          <a:off x="6986724" y="1819834"/>
+          <a:ext cx="6819886" cy="3729319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -326,7 +362,609 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>591282</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>42035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>127482</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>49567</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Cerneală 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BD6100-D9EB-2612-C502-EB7F183536BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9959400" y="2731447"/>
+            <a:ext cx="145800" cy="366120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Cerneală 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7BD6100-D9EB-2612-C502-EB7F183536BE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9950760" y="2722491"/>
+              <a:ext cx="163440" cy="383674"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>492882</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>58962</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>164767</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Cerneală 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59928C0A-5005-ED49-219F-C3E8F03F8156}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10470600" y="3005767"/>
+            <a:ext cx="175680" cy="207000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Cerneală 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59928C0A-5005-ED49-219F-C3E8F03F8156}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10461600" y="2997127"/>
+              <a:ext cx="193320" cy="224640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>519522</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124751</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>192882</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>89802</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="7" name="Cerneală 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6F126E-8A9D-978F-8E2D-9C17F8167073}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10497240" y="3889927"/>
+            <a:ext cx="282960" cy="323640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="7" name="Cerneală 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF6F126E-8A9D-978F-8E2D-9C17F8167073}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10488240" y="3880977"/>
+              <a:ext cx="300600" cy="341182"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>6882</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>40207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>208842</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>31885</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Cerneală 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22666A5A-5C1F-1D11-2076-3F257B48A3E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11813400" y="3088207"/>
+            <a:ext cx="201960" cy="529560"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Cerneală 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22666A5A-5C1F-1D11-2076-3F257B48A3E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11804760" y="3079608"/>
+              <a:ext cx="219600" cy="547116"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>358362</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>116682</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>71442</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="9" name="Cerneală 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E4539-C298-0DB7-7980-BA832E15DA4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11555280" y="3869407"/>
+            <a:ext cx="367920" cy="325800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="9" name="Cerneală 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C57E4539-C298-0DB7-7980-BA832E15DA4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11546280" y="3860814"/>
+              <a:ext cx="385560" cy="343343"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>238842</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>61419</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504882</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129805</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" Requires="xdr14 aink">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Cerneală 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4241363-D978-1ABB-EF71-E9DD544B6295}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13264560" y="3468007"/>
+            <a:ext cx="266040" cy="247680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Cerneală 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4241363-D978-1ABB-EF71-E9DD544B6295}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13255920" y="3459367"/>
+              <a:ext cx="283680" cy="265320"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-16T06:54:41.786"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="0"/>
+      <inkml:brushProperty name="anchorY" value="0"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">175 708 24575,'0'0'0,"0"-4"0,0-12 0,0-5 0,0-3 0,-15-8 0,-5-1 0,-5 6 0,25 29 0,-1-2 0,0-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,0 1 0,-2-1 0,2 1 0,-1 0 0,0 0 0,1 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,-4 3 0,-17 27 0,4 7 0,6 0 0,6-1 0,8-35 0,-1 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,1 3 0,-1-4 0,0 0 0,0 0 0,0 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,1 1 0,0-1 0,1 2 0,-2-4 0,1 2 0,-1 0 0,1-1 0,0 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,0-1 0,0 0 0,0 0 0,3-1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,0-1 0,0 1 0,6-4 0,-7 2 0,3-1 0,-1 0 0,-1 0 0,9-9 0,12-26 0,-20 26 0,-1 1 0,6-24 0,6-35 0,-4-7 0,0 2 0,-2 5 0,-3 5 0,-2 1 0,-3 10 0,0-3 0,-2 4 0,0 25 0,-1 23 0,-4 31 0,-1 42 0,1 22 0,1 11 0,1 1 0,1 11 0,0-4 0,2-12 0,0-12 0,0-7 0,0-14 0,6-18 0,-5-42 0,0 0 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,1-1 0,2 3 0,-4-2 0,2-2 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,-1 0 0,1 0 0,3 1 0,20 6 0,1-11 0,2-9 0,-1-6 0,5-10 0,-6 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-16T06:54:48.188"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-1244.92664"/>
+      <inkml:brushProperty name="anchorY" value="-1241.38647"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 516 24575,'0'0'0,"4"0"0,22 0 0,5 4 0,3 2 0,6-1 0,4-6 0,2-11 0,-7-7 0,0-4 0,-34 17 0,0 1 0,0-1 0,0 0 0,5-7 0,17-20 0,-8-4 0,-6 1 0,-5 2 0,-4 3 0,-3 3 0,-2-4 0,-5-9 0,-6-4 0,-9 5 0,-4 9 0,-3 5 0,-1 8 0,5 11 0,23 8 0,0 0 0,0-1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0-1 0,0 1 0,0 0 0,1-1 0,-1 1 0,0 0 0,1 0 0,-2 1 0,-10 21 0,5 6 0,4 18 0,2 0 0,2-1 0,0 5 0,0-4 0,0-4 0,10 4 0,15 6 0,-20-46 0,0 3 0,2-1 0,8 9 0,23 17 0,5-11 0,-3-10 0,-2-6 0,-10-6 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-16T06:54:49.548"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-2748.11401"/>
+      <inkml:brushProperty name="anchorY" value="-2316.1416"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-4438.20996"/>
+      <inkml:brushProperty name="anchorY" value="-3726.48022"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 477 24575,'0'0'0,"5"9"0,6 3 0,4-2 0,4-2 0,19-2 0,6-2 0,17-2 0,18-1 0,-4-1 0,18-10 0,-16-6 0,-1-9 0,-66 18 0,1 0 0,-1 1 0,0-1 0,12-11 0,-11 10 0,0-3 0,18-21 0,7-20 0,-13 5 0,-10 0 0,-8 6 0,-4 0 0,-2-2 0,-2-1 0,-5 8 0,-4 9 0,12 29 0,0-2 0,0-1 0,0 1 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 1 0,-4 2 0,2-1 0,0 0 0,1 1 0,-1-1 0,1 1 0,-1 0 0,-1 4 0,-20 38 0,4 23 0,4 14 0,6-3 0,4 0 0,3-11 0,2 3 0,1-6 0,6-8 0,0-10 0,0-7 0,-1-8 0,-2 1 0,0-3 0,-2-1 0,-1-6 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="632.04">424 903 24575,'0'0'0,"-4"-4"0,-2-7 0,1-4 0,10-15 0,13-13 0,5-12 0,10-14 0,-4 2 0,10-2 0,4 7 0,-1 5 0,-3 9 0,-9 13 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-16T06:54:52.094"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-5740.56445"/>
+      <inkml:brushProperty name="anchorY" value="-4180.24902"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">478 113 24575,'0'0'0,"0"4"0,0 7 0,0 4 0,-5 0 0,-15-3 0,15-15 0,1 3 0,-1-1 0,1 0 0,0 1 0,0-1 0,0-1 0,-6-1 0,-35-12 0,-16-7 0,3 2 0,4 3 0,13 14 0,39 6 0,0-3 0,0 1 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,1 1 0,-1-1 0,1 0 0,-1 1 0,1 0 0,-2 2 0,0-2 0,1 2 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-3 7 0,-5 47 0,6 10 0,3-1 0,2-3 0,0-4 0,5-4 0,5-7 0,4-8 0,-12-37 0,-2 0 0,1 0 0,0 0 0,1 0 0,5 6 0,19 10 0,2-9 0,9-6 0,1-3 0,2-8 0,-1-11 0,-36 11 0,1 2 0,-1 0 0,0-1 0,0 0 0,6-8 0,27-39 0,-3-21 0,-7-19 0,-8-5 0,-7 5 0,-6 9 0,-4 10 0,-3 28 0,0 41 0,-1 7 0,0 26 0,-11 34 0,1 27 0,0 14 0,1 2 0,4 7 0,2 3 0,2-1 0,1 8 0,1-4 0,-5-3 0,1-14 0,-1-20 0,1-14 0,2-15 0,-10-17 0,11-33 0,0-1 0,0 0 0,0 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,-1 0 0,-2 1 0,1 0 0,1-2 0,0 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-4 0 0,-32 3 0,-23-4 0,-5-7 0,8-11 0,46 10 0,0 2 0,1 0 0,-15-13 0,19 12 0,-2-2 0,0 1 0,-13-20 0,-18-31 0,32 43 0,1 0 0,-6-19 0,-5-26 0,9-2 0,9 7 0,2 52 0,-1-2 0,0 1 0,1-1 0,0 1 0,0 0 0,3-7 0,-3 7 0,1 1 0,0 0 0,0-1 0,0 1 0,0 1 0,7-6 0,31-30 0,3 10 0,0 1 0,5-3 0,-3 2 0,-9 0 0,-5 1 0,-4 1 0,-8 5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-16T06:54:53.837"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-4629.77686"/>
+      <inkml:brushProperty name="anchorY" value="-3764.65796"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 910 24575,'0'0'0,"4"-13"0,7-9 0,9-9 0,15-7 0,2-21 0,12-9 0,3-13 0,-3-3 0,1 3 0,-6-3 0,-11 12 0,-9 2 0,-10 11 0,-6 5 0,-11 14 0,2 38 0,1-1 0,-1 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-1 0 0,-2-3 0,3 3 0,0 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-1 0 0,-2-2 0,-21-5 0,25 9 0,-1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 1 0,0-1 0,0 1 0,-3 2 0,-14 13 0,17-9 0,-1-2 0,1 1 0,0-1 0,1 1 0,-2 7 0,-5 44 0,4 1 0,2 8 0,2-3 0,1-1 0,0-3 0,0-4 0,0-7 0,-1-2 0,1-6 0,-1-4 0,0-15 0,1-22 0,-1 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,5-20 0,20-15 0,10-15 0,3-7 0,1 7 0,-2 11 0,-36 40 0,1-3 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,1 0 0,-1 0 0,0 0 0,1 0 0,3 0 0,-5 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,1-1 0,0 0 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0 0 0,1 1 0,20 25 0,-5 8 0,-4 9 0,-4 3 0,1 9 0,2-10 0,4-9 0,-13-34 0,0 0 0,-1 0 0,1-1 0,-1 1 0,1-1 0,0 1 0,0-1 0,4 2 0,0 0 0,-1-2 0,0 1 0,0-1 0,0 0 0,10 1 0,33 5 0,4-6 0,11-12 0,-57 6 0,2 1 0,-1-1 0,1 0 0,12-8 0,32-21 0,-13 2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2024-01-16T06:54:56.006"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-6666.82813"/>
+      <inkml:brushProperty name="anchorY" value="-4540.53564"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+    <inkml:brush xml:id="br1">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#AE198D"/>
+      <inkml:brushProperty name="inkEffects" value="galaxy"/>
+      <inkml:brushProperty name="anchorX" value="-8138.6792"/>
+      <inkml:brushProperty name="anchorY" value="-5972.02393"/>
+      <inkml:brushProperty name="scaleFactor" value="0.5"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">283 253 24575,'0'0'0,"-5"0"0,0-5 0,-6-11 0,2-9 0,1-10 0,1-7 0,3 1 0,7 6 0,6 9 0,-7 24 0,-1 0 0,0 1 0,1-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,0 1 0,0 0 0,2-1 0,25-8 0,5 10 0,10 9 0,-39-4 0,2-1 0,0 0 0,-1 0 0,12 10 0,18 23 0,-9 7 0,-8 9 0,-9 3 0,-5 6 0,-4-5 0,-1-3 0,-2-6 0,-5 2 0,-4-10 0,8-37 0,1 1 0,0 0 0,0 0 0,-1-1 0,1 1 0,-6 4 0,-22 17 0,-18-4 0,-1-5 0,-9-6 0,4-3 0,-4 6 0,6-2 0,7-1 0,11-7 0,11-8 0,10-7 0,6-6 0,10 1 0,17 2 0,27 5 0,16 3 0,5 3 0,-4 2 0,-8 2 0,-4 0 0,-4 1 0,-6-1 0,-10 6 0,-5 0 0,-4-1 0,-6 4 0,19 4 0,2-1 0,16-1 0,-7-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br1" timeOffset="836.43">407 427 24575,'0'0'0,"17"0"0,11 0 0,8 0 0,-4 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -592,18 +1230,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:AA39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -626,58 +1264,67 @@
         <v>6</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="X1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -692,87 +1339,99 @@
         <v>0</v>
       </c>
       <c r="E2" s="3" t="b">
-        <f>D2</f>
+        <f>AND(A2,B2)</f>
         <v>0</v>
       </c>
       <c r="F2" s="3" t="b">
-        <f>NOT(D2)</f>
-        <v>1</v>
+        <f>E2</f>
+        <v>0</v>
       </c>
       <c r="G2" s="3" t="b">
+        <f>NOT(E2)</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="3" t="b">
         <f>OR(AND(A2,B2),C2)</f>
         <v>0</v>
       </c>
-      <c r="H2" s="3" t="b">
+      <c r="I2" s="3" t="b">
         <f>NOT(AND(NOT(AND(A2,B2)),OR(AND(A2,B2),C2)))</f>
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="b">
+      <c r="J2" s="5" t="b">
         <f>NOT(AND(NOT(AND(0,B2)),OR(AND(0,B2),C2)))</f>
         <v>1</v>
       </c>
-      <c r="J2" s="5" t="b">
+      <c r="K2" s="5" t="b">
         <f>NOT(AND(NOT(AND(1,B2)),OR(AND(1,B2),C2)))</f>
         <v>1</v>
       </c>
-      <c r="K2" s="5" t="b">
+      <c r="L2" s="5" t="b">
         <f>NOT(AND(NOT(AND(A2,0)),OR(AND(A2,0),C2)))</f>
         <v>1</v>
       </c>
-      <c r="L2" s="5" t="b">
-        <f t="shared" ref="L2:L9" si="0">NOT(AND(NOT(AND(A2,1)),OR(AND(A2,1),C2)))</f>
-        <v>1</v>
-      </c>
       <c r="M2" s="5" t="b">
+        <f t="shared" ref="M2:M9" si="0">NOT(AND(NOT(AND(A2,1)),OR(AND(A2,1),C2)))</f>
+        <v>1</v>
+      </c>
+      <c r="N2" s="5" t="b">
         <f>NOT(AND(NOT(AND(A2,B2)),OR(AND(A2,B2),0)))</f>
         <v>1</v>
       </c>
-      <c r="N2" s="7" t="b">
+      <c r="O2" s="7" t="b">
         <f>NOT(AND(NOT(AND(A2,B2)),OR(AND(A2,B2),1)))</f>
         <v>0</v>
       </c>
-      <c r="O2" s="5" t="b">
+      <c r="P2" s="5" t="b">
         <f>NOT(AND(NOT(0),OR(AND(A2,B2),C2)))</f>
         <v>1</v>
       </c>
-      <c r="P2" s="5" t="b">
+      <c r="Q2" s="5" t="b">
         <f>NOT(AND(NOT(1),OR(AND(A2,B2),C2)))</f>
         <v>1</v>
       </c>
-      <c r="Q2" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A2,B2)),OR(0,C2)))</f>
-        <v>1</v>
-      </c>
-      <c r="R2" s="7" t="b">
-        <f>NOT(AND(NOT(AND(A2,B2)),OR(1,C2)))</f>
-        <v>0</v>
+      <c r="R2" s="5" t="b">
+        <f>NOT(AND(NOT(0),OR(AND(C2,D2),E2)))</f>
+        <v>1</v>
       </c>
       <c r="S2" s="5" t="b">
-        <f>NOT(AND(0,OR(AND(A2,B2),C2)))</f>
+        <f>NOT(AND(NOT(1),OR(AND(C2,D2),E2)))</f>
         <v>1</v>
       </c>
       <c r="T2" s="5" t="b">
-        <f>NOT(AND(1,OR(AND(A2,B2),C2)))</f>
-        <v>1</v>
-      </c>
-      <c r="U2" s="5" t="b">
-        <f>NOT(AND(NOT(AND(A2,B2)),0))</f>
-        <v>1</v>
-      </c>
-      <c r="V2" s="7" t="b">
-        <f>NOT(AND(NOT(AND(A2,B2)),1))</f>
-        <v>0</v>
-      </c>
-      <c r="W2" s="7" t="b">
+        <f>NOT(AND(NOT(AND(C2,D2)),OR(0,E2)))</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="7" t="b">
+        <f>NOT(AND(NOT(AND(C2,D2)),OR(1,E2)))</f>
+        <v>0</v>
+      </c>
+      <c r="V2" s="5" t="b">
+        <f>NOT(AND(0,OR(AND(C2,D2),E2)))</f>
+        <v>1</v>
+      </c>
+      <c r="W2" s="5" t="b">
+        <f>NOT(AND(1,OR(AND(C2,D2),E2)))</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="5" t="b">
+        <f>NOT(AND(NOT(AND(C2,D2)),0))</f>
+        <v>1</v>
+      </c>
+      <c r="Y2" s="7" t="b">
+        <f>NOT(AND(NOT(AND(C2,D2)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X2" s="5" t="b">
+      <c r="AA2" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -787,87 +1446,99 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="b">
-        <f t="shared" ref="E3:E9" si="2">D3</f>
+        <f>AND(A3,B3)</f>
         <v>0</v>
       </c>
       <c r="F3" s="3" t="b">
-        <f t="shared" ref="F3:F9" si="3">NOT(D3)</f>
-        <v>1</v>
+        <f>E3</f>
+        <v>0</v>
       </c>
       <c r="G3" s="3" t="b">
-        <f t="shared" ref="G3:G9" si="4">OR(AND(A3,B3),C3)</f>
+        <f>NOT(E3)</f>
         <v>1</v>
       </c>
       <c r="H3" s="3" t="b">
-        <f t="shared" ref="H3:H9" si="5">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),C3)))</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="5" t="b">
-        <f t="shared" ref="I3:I9" si="6">NOT(AND(NOT(AND(0,B3)),OR(AND(0,B3),C3)))</f>
+        <f>OR(AND(A3,B3),C3)</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="3" t="b">
+        <f t="shared" ref="I3:I9" si="2">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="J3" s="5" t="b">
-        <f t="shared" ref="J3:J9" si="7">NOT(AND(NOT(AND(1,B3)),OR(AND(1,B3),C3)))</f>
+        <f t="shared" ref="J3:J9" si="3">NOT(AND(NOT(AND(0,B3)),OR(AND(0,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="K3" s="5" t="b">
-        <f t="shared" ref="K3:K9" si="8">NOT(AND(NOT(AND(A3,0)),OR(AND(A3,0),C3)))</f>
+        <f t="shared" ref="K3:K9" si="4">NOT(AND(NOT(AND(1,B3)),OR(AND(1,B3),C3)))</f>
         <v>0</v>
       </c>
       <c r="L3" s="5" t="b">
+        <f t="shared" ref="L3:L9" si="5">NOT(AND(NOT(AND(A3,0)),OR(AND(A3,0),C3)))</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="5" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="7" t="b">
-        <f t="shared" ref="M3:M9" si="9">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),0)))</f>
-        <v>1</v>
-      </c>
-      <c r="N3" s="5" t="b">
-        <f t="shared" ref="N3:N9" si="10">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),1)))</f>
-        <v>0</v>
+      <c r="N3" s="7" t="b">
+        <f t="shared" ref="N3:N9" si="6">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),0)))</f>
+        <v>1</v>
       </c>
       <c r="O3" s="5" t="b">
-        <f t="shared" ref="O3:O9" si="11">NOT(AND(NOT(0),OR(AND(A3,B3),C3)))</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="7" t="b">
-        <f t="shared" ref="P3:P9" si="12">NOT(AND(NOT(1),OR(AND(A3,B3),C3)))</f>
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="b">
-        <f t="shared" ref="Q3:Q9" si="13">NOT(AND(NOT(AND(A3,B3)),OR(0,C3)))</f>
-        <v>0</v>
+        <f t="shared" ref="O3:O9" si="7">NOT(AND(NOT(AND(A3,B3)),OR(AND(A3,B3),1)))</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="5" t="b">
+        <f t="shared" ref="P3:P9" si="8">NOT(AND(NOT(0),OR(AND(A3,B3),C3)))</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7" t="b">
+        <f t="shared" ref="Q3:Q9" si="9">NOT(AND(NOT(1),OR(AND(A3,B3),C3)))</f>
+        <v>1</v>
       </c>
       <c r="R3" s="5" t="b">
-        <f t="shared" ref="R3:R9" si="14">NOT(AND(NOT(AND(A3,B3)),OR(1,C3)))</f>
-        <v>0</v>
+        <f t="shared" ref="R3:R9" si="10">NOT(AND(NOT(0),OR(AND(C3,D3),E3)))</f>
+        <v>1</v>
       </c>
       <c r="S3" s="7" t="b">
-        <f t="shared" ref="S3:S9" si="15">NOT(AND(0,OR(AND(A3,B3),C3)))</f>
+        <f t="shared" ref="S3:S9" si="11">NOT(AND(NOT(1),OR(AND(C3,D3),E3)))</f>
         <v>1</v>
       </c>
       <c r="T3" s="5" t="b">
-        <f t="shared" ref="T3:T9" si="16">NOT(AND(1,OR(AND(A3,B3),C3)))</f>
-        <v>0</v>
-      </c>
-      <c r="U3" s="7" t="b">
-        <f t="shared" ref="U3:U9" si="17">NOT(AND(NOT(AND(A3,B3)),0))</f>
-        <v>1</v>
-      </c>
-      <c r="V3" s="5" t="b">
-        <f t="shared" ref="V3:V9" si="18">NOT(AND(NOT(AND(A3,B3)),1))</f>
-        <v>0</v>
+        <f t="shared" ref="T3:T9" si="12">NOT(AND(NOT(AND(C3,D3)),OR(0,E3)))</f>
+        <v>1</v>
+      </c>
+      <c r="U3" s="5" t="b">
+        <f t="shared" ref="U3:U9" si="13">NOT(AND(NOT(AND(C3,D3)),OR(1,E3)))</f>
+        <v>0</v>
+      </c>
+      <c r="V3" s="7" t="b">
+        <f t="shared" ref="V3:V9" si="14">NOT(AND(0,OR(AND(C3,D3),E3)))</f>
+        <v>1</v>
       </c>
       <c r="W3" s="5" t="b">
+        <f t="shared" ref="W3:W9" si="15">NOT(AND(1,OR(AND(C3,D3),E3)))</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="7" t="b">
+        <f t="shared" ref="X3:X9" si="16">NOT(AND(NOT(AND(C3,D3)),0))</f>
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5" t="b">
+        <f t="shared" ref="Y3:Y9" si="17">NOT(AND(NOT(AND(C3,D3)),1))</f>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X3" s="7" t="b">
+      <c r="AA3" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -882,87 +1553,99 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="b">
+        <f>AND(A4,B4)</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <f>E4</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <f>NOT(E4)</f>
+        <v>1</v>
+      </c>
+      <c r="H4" s="3" t="b">
+        <f>OR(AND(A4,B4),C4)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G4" s="3" t="b">
+      <c r="K4" s="5" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I4" s="5" t="b">
+      <c r="M4" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N4" s="5" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J4" s="5" t="b">
+      <c r="O4" s="7" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K4" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L4" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M4" s="5" t="b">
+      <c r="Q4" s="5" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N4" s="7" t="b">
+      <c r="R4" s="5" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P4" s="5" t="b">
+      <c r="T4" s="5" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q4" s="5" t="b">
+      <c r="U4" s="7" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S4" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="5" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T4" s="5" t="b">
+      <c r="X4" s="5" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U4" s="5" t="b">
+      <c r="Y4" s="7" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V4" s="7" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W4" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X4" s="5" t="b">
+      <c r="AA4" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -977,87 +1660,99 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="b">
+        <f>AND(A5,B5)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <f>E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <f>NOT(E5)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="3" t="b">
+        <f>OR(AND(A5,B5),C5)</f>
+        <v>1</v>
+      </c>
+      <c r="I5" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F5" s="3" t="b">
+      <c r="J5" s="5" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H5" s="3" t="b">
+      <c r="L5" s="5" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I5" s="5" t="b">
+      <c r="M5" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="7" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="O5" s="5" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L5" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5" s="7" t="b">
+      <c r="Q5" s="7" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N5" s="5" t="b">
+      <c r="R5" s="5" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O5" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" s="7" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T5" s="5" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="5" t="b">
+      <c r="U5" s="5" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R5" s="5" t="b">
+      <c r="V5" s="7" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W5" s="5" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T5" s="5" t="b">
+      <c r="X5" s="7" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U5" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="5" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V5" s="5" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W5" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X5" s="7" t="b">
+      <c r="AA5" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1072,87 +1767,99 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="b">
+        <f>AND(A6,B6)</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <f>E6</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <f>NOT(E6)</f>
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="b">
+        <f>OR(AND(A6,B6),C6)</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="3" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="b">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="G6" s="3" t="b">
+      <c r="K6" s="5" t="b">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="b">
+      <c r="M6" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="5" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J6" s="5" t="b">
+      <c r="O6" s="7" t="b">
         <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="K6" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" s="5" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="L6" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M6" s="5" t="b">
+      <c r="Q6" s="5" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N6" s="7" t="b">
+      <c r="R6" s="5" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5" t="b">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="P6" s="5" t="b">
+      <c r="T6" s="5" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="5" t="b">
+      <c r="U6" s="7" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="V6" s="5" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" s="5" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T6" s="5" t="b">
+      <c r="X6" s="5" t="b">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="U6" s="5" t="b">
+      <c r="Y6" s="7" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V6" s="7" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X6" s="5" t="b">
+      <c r="AA6" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1167,87 +1874,99 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="b">
+        <f>AND(A7,B7)</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <f>E7</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <f>NOT(E7)</f>
+        <v>1</v>
+      </c>
+      <c r="H7" s="3" t="b">
+        <f>OR(AND(A7,B7),C7)</f>
+        <v>1</v>
+      </c>
+      <c r="I7" s="3" t="b">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F7" s="3" t="b">
+      <c r="J7" s="5" t="b">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5" t="b">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="H7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5" t="b">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="I7" s="5" t="b">
+      <c r="M7" s="7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N7" s="7" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O7" s="5" t="b">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K7" s="5" t="b">
+      <c r="P7" s="5" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L7" s="7" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M7" s="7" t="b">
+      <c r="Q7" s="7" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N7" s="5" t="b">
+      <c r="R7" s="5" t="b">
         <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" s="7" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="5" t="b">
+      <c r="U7" s="5" t="b">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="R7" s="5" t="b">
+      <c r="V7" s="7" t="b">
         <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5" t="b">
         <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="T7" s="5" t="b">
+      <c r="X7" s="7" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="5" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="5" t="b">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="5" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X7" s="7" t="b">
+      <c r="AA7" s="7" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1262,87 +1981,99 @@
         <v>1</v>
       </c>
       <c r="E8" s="3" t="b">
+        <f>AND(A8,B8)</f>
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <f>E8</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <f>NOT(E8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="3" t="b">
+        <f>OR(AND(A8,B8),C8)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="3" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F8" s="3" t="b">
+      <c r="J8" s="5" t="b">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H8" s="3" t="b">
+      <c r="L8" s="5" t="b">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="I8" s="5" t="b">
+      <c r="M8" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="5" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="J8" s="5" t="b">
+      <c r="O8" s="5" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K8" s="5" t="b">
+      <c r="P8" s="7" t="b">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="L8" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N8" s="5" t="b">
+      <c r="R8" s="7" t="b">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" s="5" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Q8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5" t="b">
         <f t="shared" si="13"/>
-        <v>1</v>
-      </c>
-      <c r="R8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="V8" s="5" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S8" s="5" t="b">
+      <c r="W8" s="7" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="T8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5" t="b">
         <f t="shared" si="17"/>
-        <v>1</v>
-      </c>
-      <c r="V8" s="5" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="W8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X8" s="5" t="b">
+      <c r="AA8" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -1357,132 +2088,171 @@
         <v>1</v>
       </c>
       <c r="E9" s="3" t="b">
+        <f>AND(A9,B9)</f>
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <f>E9</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <f>NOT(E9)</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="3" t="b">
+        <f>OR(AND(A9,B9),C9)</f>
+        <v>1</v>
+      </c>
+      <c r="I9" s="3" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="b">
+      <c r="J9" s="7" t="b">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="b">
+      <c r="K9" s="5" t="b">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="H9" s="3" t="b">
+      <c r="L9" s="7" t="b">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="I9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="M9" s="5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="5" t="b">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="K9" s="7" t="b">
+      <c r="P9" s="7" t="b">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="L9" s="5" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="b">
+      <c r="Q9" s="5" t="b">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="N9" s="5" t="b">
+      <c r="R9" s="7" t="b">
         <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="O9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5" t="b">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="T9" s="5" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="5" t="b">
+      <c r="U9" s="5" t="b">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="R9" s="5" t="b">
+      <c r="V9" s="5" t="b">
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="S9" s="5" t="b">
+      <c r="W9" s="7" t="b">
         <f t="shared" si="15"/>
-        <v>1</v>
-      </c>
-      <c r="T9" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="5" t="b">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5" t="b">
         <f t="shared" si="17"/>
         <v>1</v>
       </c>
-      <c r="V9" s="5" t="b">
-        <f t="shared" si="18"/>
-        <v>1</v>
-      </c>
-      <c r="W9" s="7" t="b">
+      <c r="Z9" s="7" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="X9" s="5" t="b">
+      <c r="AA9" s="5" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="U12" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1493,28 +2263,29 @@
         <v>1</v>
       </c>
       <c r="D24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="H24" s="4"/>
+      <c r="I24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="J24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I24" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="J24" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>0</v>
       </c>
@@ -1527,16 +2298,17 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J25" s="3"/>
+      <c r="K25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1548,15 +2320,16 @@
       </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -1569,16 +2342,17 @@
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27" s="3"/>
+      <c r="K27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>0</v>
       </c>
@@ -1590,17 +2364,18 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -1613,16 +2388,17 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="3"/>
+      <c r="K29" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -1634,17 +2410,18 @@
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
-      <c r="I30" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I30" s="3"/>
+      <c r="J30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1658,15 +2435,16 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="3"/>
+      <c r="K31" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -1677,27 +2455,28 @@
         <v>1</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3" t="s">
-        <v>40</v>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
